--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_6_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_6_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2263766223449399</v>
+        <v>0.1845641850559748</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2263766223449399</v>
+        <v>0.1845641850559748</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.563122444628064</v>
+        <v>6.645643758002706</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.059721797724473, 11.185966686980601]</t>
+          <t>[-2.698639785612805, 15.989927301618216]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.172058376034212</v>
+        <v>0.1589317898570406</v>
       </c>
       <c r="O2" t="n">
-        <v>0.172058376034212</v>
+        <v>0.1589317898570406</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.547210796362541</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.622763964741739, 1.528342372016657]</t>
+          <t>[-3.4592111300788515, 0.742158024271462]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3163675052905317</v>
+        <v>0.1993608569318459</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3163675052905317</v>
+        <v>0.1993608569318459</v>
       </c>
       <c r="T2" t="n">
-        <v>11.09112510723108</v>
+        <v>11.5060451992746</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.278221102244016, 14.904029112218149]</t>
+          <t>[6.286404343048526, 16.725686055500667]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.058879717356746e-07</v>
+        <v>5.781927148196253e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>5.058879717356746e-07</v>
+        <v>5.781927148196253e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>6.252192192192322</v>
+        <v>5.507027027027146</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.175945945946081</v>
+        <v>-3.00846846846853</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.68033033033073</v>
+        <v>14.02252252252282</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09389452276574672</v>
+        <v>0.1119728531086575</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09389452276574672</v>
+        <v>0.1119728531086575</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.125884318744907</v>
+        <v>5.292953263248391</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.0351676252360384, 13.286936262725852]</t>
+          <t>[-1.3252972894754294, 11.911203815972211]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09176320065626675</v>
+        <v>0.1142205274204577</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09176320065626675</v>
+        <v>0.1142205274204577</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.786210838077079</v>
+        <v>-1.018894914677771</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.4340532309510046, -0.13836844520315417]</t>
+          <t>[-4.094448083056968, 2.0566582537014257]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03427513302409912</v>
+        <v>0.5080204814180171</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03427513302409912</v>
+        <v>0.5080204814180171</v>
       </c>
       <c r="T3" t="n">
-        <v>11.01381080120711</v>
+        <v>11.28436045035958</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.030055524123981, 14.997566078290234]</t>
+          <t>[7.6721584991276535, 14.89656240159151]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.358977724796873e-06</v>
+        <v>1.149650281639936e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.358977724796873e-06</v>
+        <v>1.149650281639936e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.217977977978126</v>
+        <v>4.130270270270358</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5591391391391491</v>
+        <v>-8.337027027027204</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.8768168168171</v>
+        <v>16.59756756756792</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06877665355542528</v>
+        <v>0.1887481577048435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06877665355542528</v>
+        <v>0.1887481577048435</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.107195078316374</v>
+        <v>6.204658182286805</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.4351640092355815, 14.649554165868329]</t>
+          <t>[-2.754438695006609, 15.163755059580218]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06413559858789597</v>
+        <v>0.1699008541343416</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06413559858789597</v>
+        <v>0.1699008541343416</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.723316090257464</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.16989529010862, -0.27673689040630833]</t>
+          <t>[-4.67307976299743, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.02062370898123667</v>
+        <v>0.1746273483187271</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02062370898123667</v>
+        <v>0.1746273483187271</v>
       </c>
       <c r="T4" t="n">
-        <v>12.05461688165327</v>
+        <v>11.19195831202445</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.7122373387127965, 16.396996424593745]</t>
+          <t>[6.369774175687762, 16.014142448361138]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.257441615276633e-06</v>
+        <v>2.695301975008668e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.257441615276633e-06</v>
+        <v>2.695301975008668e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>6.963823823823969</v>
+        <v>7.699639639639805</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.118278278278302</v>
+        <v>-3.543873873873949</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.80936936936964</v>
+        <v>18.94315315315356</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5451661424182856</v>
+        <v>0.1033451855169399</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5451661424182856</v>
+        <v>0.1033451855169399</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.48399034790735</v>
+        <v>5.75129624689821</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.083682143244151, 12.051662839058853]</t>
+          <t>[-1.006203257300065, 12.508795751096486]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4170900932562989</v>
+        <v>0.09337298439991515</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4170900932562989</v>
+        <v>0.09337298439991515</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.98747403109985</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.1007640481708165, 1.1258159859711174]</t>
+          <t>[-3.0441057944693894, 0.12578949563923159]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.20510022668349</v>
+        <v>0.07026347769902874</v>
       </c>
       <c r="S5" t="n">
-        <v>0.20510022668349</v>
+        <v>0.07026347769902874</v>
       </c>
       <c r="T5" t="n">
-        <v>12.21073017662408</v>
+        <v>9.934189267933156</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.69416009865574, 16.72730025459241]</t>
+          <t>[6.064624671397013, 13.8037538644693]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.062594813390106e-06</v>
+        <v>5.199551220913534e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.062594813390106e-06</v>
+        <v>5.199551220913534e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>8.031271271271443</v>
+        <v>5.914954954955078</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.549359359359453</v>
+        <v>-0.5099099099099256</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.61190190190234</v>
+        <v>12.33981981982008</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3434711150239476</v>
+        <v>0.08538992667395517</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3434711150239476</v>
+        <v>0.08538992667395517</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.372945798252108</v>
+        <v>7.350946787140348</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.6156403697098263, 12.361531966214043]</t>
+          <t>[-1.3812789233655032, 16.0831724976462]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2760979406633406</v>
+        <v>0.09688843630556043</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2760979406633406</v>
+        <v>0.09688843630556043</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.138421425866926</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.276869342065738, 1.0000264903318863]</t>
+          <t>[-5.245421968155931, 0.18868424345884627]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1767612699662788</v>
+        <v>0.06739890728036491</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1767612699662788</v>
+        <v>0.06739890728036491</v>
       </c>
       <c r="T6" t="n">
-        <v>11.42410057313223</v>
+        <v>12.51909204724911</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.2136652298134685, 15.634535916450996]</t>
+          <t>[8.031190053189563, 17.00699404130866]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.930100813396507e-06</v>
+        <v>1.146678494823306e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.930100813396507e-06</v>
+        <v>1.146678494823306e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>8.641241241241421</v>
+        <v>10.24918918918941</v>
       </c>
       <c r="Y6" t="n">
-        <v>-4.041051051051134</v>
+        <v>-0.7648648648648795</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.32353353353398</v>
+        <v>21.2632432432437</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2320972294256887</v>
+        <v>0.3223947229387791</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2320972294256887</v>
+        <v>0.3223947229387791</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.52932057848628</v>
+        <v>5.295638281995505</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.9511447973202465, 14.009785954292806]</t>
+          <t>[-4.048977013427862, 14.640253577418871]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1957695940275306</v>
+        <v>0.2597403633293585</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1957695940275306</v>
+        <v>0.2597403633293585</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.591263610168157</v>
+        <v>-2.47805306409285</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.6919746776752005, 0.5094474573388856]</t>
+          <t>[-5.597632555945778, 0.6415264277600778]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09926552039318892</v>
+        <v>0.1166162313232697</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09926552039318892</v>
+        <v>0.1166162313232697</v>
       </c>
       <c r="T7" t="n">
-        <v>11.92568479239375</v>
+        <v>12.30892748621684</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.500995854888561, 16.350373729898937]</t>
+          <t>[7.4643538444299296, 17.153501128003747]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.182285553375962e-06</v>
+        <v>6.217266092178875e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.182285553375962e-06</v>
+        <v>6.217266092178875e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>10.47115115115137</v>
+        <v>10.04522522522544</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.058648648648692</v>
+        <v>-2.600540540540596</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.00095095095143</v>
+        <v>22.69099099099148</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.39000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5185285549918287</v>
+        <v>0.2464480539849213</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5185285549918287</v>
+        <v>0.2464480539849213</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.191742507797439</v>
+        <v>5.718918998415522</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.307144061792107, 10.690629077386985]</t>
+          <t>[-2.5053844252632116, 13.943222422094255]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3958435375952813</v>
+        <v>0.1682085753815341</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3958435375952813</v>
+        <v>0.1682085753815341</v>
       </c>
       <c r="P8" t="n">
-        <v>2.698184681461504</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.44026323473730855, 5.836632597660317]</t>
+          <t>[-5.811474698532471, -0.3018947895341544]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09020255105454145</v>
+        <v>0.03043836853709037</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09020255105454145</v>
+        <v>0.03043836853709037</v>
       </c>
       <c r="T8" t="n">
-        <v>10.94045473623126</v>
+        <v>11.30173305062778</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.024005001880656, 14.856904470581867]</t>
+          <t>[6.65271236673827, 15.950753734517292]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.116157823499719e-06</v>
+        <v>1.298365066926266e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.116157823499719e-06</v>
+        <v>1.298365066926266e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>14.48678678678709</v>
+        <v>12.39081081081108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.804494494494532</v>
+        <v>1.22378378378381</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.16907907907964</v>
+        <v>23.55783783783834</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1041924584162408</v>
+        <v>0.2429456438072106</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1041924584162408</v>
+        <v>0.2429456438072106</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.612868980185026</v>
+        <v>5.2751401815877</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.8932140193856286, 15.118951979755682]</t>
+          <t>[-2.9553110167551644, 13.505591379930564]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1243965211407783</v>
+        <v>0.203331601950959</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1243965211407783</v>
+        <v>0.203331601950959</v>
       </c>
       <c r="P9" t="n">
-        <v>2.509500438002657</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 5.4466851611787]</t>
+          <t>[-0.6792632764518469, 5.597632555945778]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.09215181537169781</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09215181537169781</v>
+        <v>0.1215277289414654</v>
       </c>
       <c r="T9" t="n">
-        <v>14.69805090898467</v>
+        <v>10.70994901254308</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.37985278291817, 19.016249035051167]</t>
+          <t>[6.315084421164833, 15.104813603921329]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.669560689698812e-08</v>
+        <v>1.24795482254747e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.669560689698812e-08</v>
+        <v>1.24795482254747e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>14.27027027027044</v>
+        <v>14.60052052052071</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.163243243243279</v>
+        <v>2.61752752752756</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.37729729729759</v>
+        <v>26.58351351351386</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.071432505441129</v>
+        <v>0.1220679353102756</v>
       </c>
       <c r="I10" t="n">
-        <v>0.071432505441129</v>
+        <v>0.1220679353102756</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.127985162180677</v>
+        <v>6.118924407561332</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.1887470205333823, 15.444717344894736]</t>
+          <t>[-1.5974761056981652, 13.83532492082083]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09116881979051561</v>
+        <v>0.1172346410865543</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09116881979051561</v>
+        <v>0.1172346410865543</v>
       </c>
       <c r="P10" t="n">
-        <v>2.572395185822273</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.421394810391424, 4.723395561253122]</t>
+          <t>[0.798763297309117, 4.773711359508814]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02016700166773577</v>
+        <v>0.007050671218069793</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02016700166773577</v>
+        <v>0.007050671218069793</v>
       </c>
       <c r="T10" t="n">
-        <v>11.51705991238996</v>
+        <v>12.68981714582102</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.221696186805886, 15.812423637974035]</t>
+          <t>[8.542815677172332, 16.836818614469703]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.400212558706372e-06</v>
+        <v>1.78696593300387e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.400212558706372e-06</v>
+        <v>1.78696593300387e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.03243243243259</v>
+        <v>13.35179179179197</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.898378378378448</v>
+        <v>5.763363363363441</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.16648648648674</v>
+        <v>20.94022022022049</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3953546547497189</v>
+        <v>0.202435123713006</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3953546547497189</v>
+        <v>0.202435123713006</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.142269788324421</v>
+        <v>5.315784487019604</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.904883814839449, 12.189423391488292]</t>
+          <t>[-2.4259291385030046, 13.057498112542213]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3053873622361674</v>
+        <v>0.1734989465986174</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3053873622361674</v>
+        <v>0.1734989465986174</v>
       </c>
       <c r="P11" t="n">
-        <v>2.534658337130505</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, 5.660527303765395]</t>
+          <t>[0.34592111300788453, 5.427816736832816]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1094125336178746</v>
+        <v>0.02686936119872363</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1094125336178746</v>
+        <v>0.02686936119872363</v>
       </c>
       <c r="T11" t="n">
-        <v>10.26245837835266</v>
+        <v>11.18961450189556</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.972352211342538, 14.552564545362777]</t>
+          <t>[7.032470648195238, 15.346758355595872]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.68209230013705e-05</v>
+        <v>2.236447306680489e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.68209230013705e-05</v>
+        <v>2.236447306680489e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>14.1751351351353</v>
+        <v>12.96756756756774</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.354594594594614</v>
+        <v>3.265905905905949</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.99567567567598</v>
+        <v>22.66922922922953</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2983966655041166</v>
+        <v>0.372547075442961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2983966655041166</v>
+        <v>0.372547075442961</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.896352863204678</v>
+        <v>3.934229600157906</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.711375061900279, 13.504080788309635]</t>
+          <t>[-3.1161370286066497, 10.984596228922461]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2579811183187126</v>
+        <v>0.2670130999917972</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2579811183187126</v>
+        <v>0.2670130999917972</v>
       </c>
       <c r="P12" t="n">
-        <v>2.597553084950119</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.5346053564667317, 5.7297115263669705]</t>
+          <t>[-6.226580034141931, 0.03773684869176819]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1017962559432648</v>
+        <v>0.05270602170666217</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1017962559432648</v>
+        <v>0.05270602170666217</v>
       </c>
       <c r="T12" t="n">
-        <v>11.20773947255577</v>
+        <v>10.41831109847932</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.77496038029334, 15.640518564818201]</t>
+          <t>[6.477315222608389, 14.359306974350257]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.758348716884299e-06</v>
+        <v>3.101322548992869e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>6.758348716884299e-06</v>
+        <v>3.101322548992869e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.93729729729746</v>
+        <v>11.81489489489505</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.092972972972996</v>
+        <v>-0.1440840840840814</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.78162162162192</v>
+        <v>23.77387387387418</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1094057788769349</v>
+        <v>0.1222595952932077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1094057788769349</v>
+        <v>0.1222595952932077</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.93088358231327</v>
+        <v>5.591769388998108</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.401592440986608, 13.263359605613148]</t>
+          <t>[-1.573716509805692, 12.757255287801907]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1102712273334256</v>
+        <v>0.1230124930293433</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1102712273334256</v>
+        <v>0.1230124930293433</v>
       </c>
       <c r="P13" t="n">
-        <v>2.773658378845043</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 4.710816611689199]</t>
+          <t>[-0.17610529389492324, 5.547316757690085]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.006007298085575874</v>
+        <v>0.06518774453957277</v>
       </c>
       <c r="S13" t="n">
-        <v>0.006007298085575874</v>
+        <v>0.06518774453957277</v>
       </c>
       <c r="T13" t="n">
-        <v>10.53366078426219</v>
+        <v>10.75200923452933</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.6039345010089505, 14.46338706751542]</t>
+          <t>[6.962634288366093, 14.541384180692564]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.412812975194356e-06</v>
+        <v>8.260223041123282e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>2.412812975194356e-06</v>
+        <v>8.260223041123282e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>13.2713513513515</v>
+        <v>13.73601601601619</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.945945945946014</v>
+        <v>2.809639639639677</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.59675675675699</v>
+        <v>24.66239239239271</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2054908628806309</v>
+        <v>0.3503892417502372</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2054908628806309</v>
+        <v>0.3503892417502372</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.588401601328222</v>
+        <v>4.470708407778378</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.54254634047874, 13.719349543135184]</t>
+          <t>[-3.9532600461883582, 12.894676861745115]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1730954243670253</v>
+        <v>0.2908104741506885</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1730954243670253</v>
+        <v>0.2908104741506885</v>
       </c>
       <c r="P14" t="n">
-        <v>2.92460577361212</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.04402632347373192, 5.805185223750509]</t>
+          <t>[-0.5975001042863468, 5.666816778547354]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.04674110929457109</v>
+        <v>0.1101064066907524</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04674110929457109</v>
+        <v>0.1101064066907524</v>
       </c>
       <c r="T14" t="n">
-        <v>11.57501461400889</v>
+        <v>11.10562009773163</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.163233673555592, 15.986795554462194]</t>
+          <t>[6.76754220403799, 15.443697991425278]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.549941150149394e-06</v>
+        <v>5.45966392428987e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>3.549941150149394e-06</v>
+        <v>5.45966392428987e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>12.70054054054069</v>
+        <v>14.31235235235254</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.807567567567588</v>
+        <v>2.353373373373403</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.59351351351378</v>
+        <v>26.27133133133167</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5023838047999862</v>
+        <v>0.08115826475664545</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5023838047999862</v>
+        <v>0.08115826475664545</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.214215202623178</v>
+        <v>6.923604654844819</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.012190611135939, 10.440621016382295]</t>
+          <t>[-1.009972396871996, 14.857181706561635]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.3751012335946204</v>
+        <v>0.08559946142143504</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3751012335946204</v>
+        <v>0.08559946142143504</v>
       </c>
       <c r="P15" t="n">
-        <v>2.949763672739966</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.18868424345884627, 6.088211588938779]</t>
+          <t>[1.163552834662887, 4.534711317794276]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06479770449860189</v>
+        <v>0.001403621776724595</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06479770449860189</v>
+        <v>0.001403621776724595</v>
       </c>
       <c r="T15" t="n">
-        <v>11.05213652638536</v>
+        <v>11.9402140061941</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.163544326081151, 14.94072872668957]</t>
+          <t>[7.664812722463321, 16.21561528992488]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.993619945967367e-07</v>
+        <v>1.121455636354796e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>7.993619945967367e-07</v>
+        <v>1.121455636354796e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>12.60540540540555</v>
+        <v>13.11165165165182</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7372972972973031</v>
+        <v>6.675895895895984</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.47351351351379</v>
+        <v>19.54740740740766</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1548967733730344</v>
+        <v>0.1184930930907543</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1548967733730344</v>
+        <v>0.1184930930907543</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.851532464478598</v>
+        <v>6.203434348168674</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.0548118367922257, 13.757876765749423]</t>
+          <t>[-1.8852820436852902, 14.292150740022638]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.143030262978258</v>
+        <v>0.1294314699217263</v>
       </c>
       <c r="O16" t="n">
-        <v>0.143030262978258</v>
+        <v>0.1294314699217263</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.84284260144662</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.610211505509701, -0.07547369738353815]</t>
+          <t>[-0.779894872963232, 5.497000959434392]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.04431561432769904</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04431561432769904</v>
+        <v>0.1371185952733296</v>
       </c>
       <c r="T16" t="n">
-        <v>11.4939471469677</v>
+        <v>11.27255097849714</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.250861755953689, 15.737032537981715]</t>
+          <t>[7.101334464562228, 15.443767492432045]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.989094847942852e-06</v>
+        <v>2.077817183643305e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.989094847942852e-06</v>
+        <v>2.077817183643305e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>10.75027027027039</v>
+        <v>14.98474474474494</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.285405405405406</v>
+        <v>3.001751751751792</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.21513513513538</v>
+        <v>26.96773773773809</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.76000000000028</v>
+        <v>23.99000000000031</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0701763465568942</v>
+        <v>0.06002654382510053</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0701763465568942</v>
+        <v>0.06002654382510053</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.460069735033997</v>
+        <v>6.756485181472945</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.48174511332639014, 13.401884583394384]</t>
+          <t>[0.05756334021481102, 13.455407022731078]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.06738561291028855</v>
+        <v>0.04814433707309562</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06738561291028855</v>
+        <v>0.04814433707309562</v>
       </c>
       <c r="P17" t="n">
-        <v>2.874289975356427</v>
+        <v>-3.107000542289004</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.2641844311742712, 4.484395519538584]</t>
+          <t>[-4.427790246500929, -1.7862108380770794]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0008001133927566517</v>
+        <v>2.189538305219507e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0008001133927566517</v>
+        <v>2.189538305219507e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>10.93663463473129</v>
+        <v>10.7736518157115</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.049624856705637, 14.823644412756938]</t>
+          <t>[6.843454133774017, 14.703849497648978]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9.721632554526849e-07</v>
+        <v>1.594858628495288e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>9.721632554526849e-07</v>
+        <v>1.594858628495288e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>12.89081081081096</v>
+        <v>11.86292292292307</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.802162162162241</v>
+        <v>6.819979979980067</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.97945945945968</v>
+        <v>16.90586586586608</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_6_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_6_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1845641850559748</v>
+        <v>0.08026633677603479</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1845641850559748</v>
+        <v>0.08026633677603479</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.645643758002706</v>
+        <v>6.825445701881426</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.698639785612805, 15.989927301618216]</t>
+          <t>[-0.6886412930629273, 14.33953269682578]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1589317898570406</v>
+        <v>0.07395217941760945</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1589317898570406</v>
+        <v>0.07395217941760945</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.358526552903695</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.4592111300788515, 0.742158024271462]</t>
+          <t>[-2.956053147521927, 0.037736848691769076]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1993608569318459</v>
+        <v>0.05580587175723273</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1993608569318459</v>
+        <v>0.05580587175723273</v>
       </c>
       <c r="T2" t="n">
-        <v>11.5060451992746</v>
+        <v>11.92933748605711</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.286404343048526, 16.725686055500667]</t>
+          <t>[7.5973513125268894, 16.26132365958734]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.781927148196253e-05</v>
+        <v>1.464059781186577e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.781927148196253e-05</v>
+        <v>1.464059781186577e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.507027027027146</v>
+        <v>5.898698698698819</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.00846846846853</v>
+        <v>-0.1525525525525575</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.02252252252282</v>
+        <v>11.9499499499502</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1119728531086575</v>
+        <v>0.08759011679831075</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1119728531086575</v>
+        <v>0.08759011679831075</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.292953263248391</v>
+        <v>6.600582749969596</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.3252972894754294, 11.911203815972211]</t>
+          <t>[-1.3665160631539095, 14.567681563093101]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1142205274204577</v>
+        <v>0.1021321102075423</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1142205274204577</v>
+        <v>0.1021321102075423</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.018894914677771</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.094448083056968, 2.0566582537014257]</t>
+          <t>[-3.0441057944693894, 0.6792632764518465]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5080204814180171</v>
+        <v>0.2073739217523793</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5080204814180171</v>
+        <v>0.2073739217523793</v>
       </c>
       <c r="T3" t="n">
-        <v>11.28436045035958</v>
+        <v>11.93549538497042</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.6721584991276535, 14.89656240159151]</t>
+          <t>[7.664477200233534, 16.206513569707305]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.149650281639936e-07</v>
+        <v>1.10801965358398e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.149650281639936e-07</v>
+        <v>1.10801965358398e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>4.130270270270358</v>
+        <v>4.779979979980084</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.337027027027204</v>
+        <v>-2.745945945945999</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.59756756756792</v>
+        <v>12.30590590590617</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1887481577048435</v>
+        <v>0.16401190540932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1887481577048435</v>
+        <v>0.16401190540932</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.204658182286805</v>
+        <v>5.851865119505195</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.754438695006609, 15.163755059580218]</t>
+          <t>[-2.049667180070445, 13.753397419080835]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1699008541343416</v>
+        <v>0.142770519091574</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1699008541343416</v>
+        <v>0.142770519091574</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.899421384152387</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.67307976299743, 0.8742369946926551]</t>
+          <t>[-5.075606149042968, 1.0503422885875784]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1746273483187271</v>
+        <v>0.1923753976533038</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1746273483187271</v>
+        <v>0.1923753976533038</v>
       </c>
       <c r="T4" t="n">
-        <v>11.19195831202445</v>
+        <v>11.64031086808057</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.369774175687762, 16.014142448361138]</t>
+          <t>[7.312967422771557, 15.96765431338958]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.695301975008668e-05</v>
+        <v>2.262719511314515e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.695301975008668e-05</v>
+        <v>2.262719511314515e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>7.699639639639805</v>
+        <v>8.136136136136304</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.543873873873949</v>
+        <v>-4.246046046046134</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.94315315315356</v>
+        <v>20.51831831831874</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1033451855169399</v>
+        <v>0.04721189643474966</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1033451855169399</v>
+        <v>0.04721189643474966</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.75129624689821</v>
+        <v>6.822246732513798</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.006203257300065, 12.508795751096486]</t>
+          <t>[-0.20696404140635316, 13.851457506433949]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.09337298439991515</v>
+        <v>0.0568357036670899</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09337298439991515</v>
+        <v>0.0568357036670899</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.459158149415079</v>
+        <v>-2.037789829355541</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.0441057944693894, 0.12578949563923159]</t>
+          <t>[-3.710790121357312, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07026347769902874</v>
+        <v>0.01809496284263545</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07026347769902874</v>
+        <v>0.01809496284263545</v>
       </c>
       <c r="T5" t="n">
-        <v>9.934189267933156</v>
+        <v>10.74465267958645</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.064624671397013, 13.8037538644693]</t>
+          <t>[6.9220013447196855, 14.56730401445322]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.199551220913534e-06</v>
+        <v>9.913363816504983e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>5.199551220913534e-06</v>
+        <v>9.913363816504983e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>5.914954954955078</v>
+        <v>8.237837837838008</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.5099099099099256</v>
+        <v>1.474674674674705</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.33981981982008</v>
+        <v>15.00100100100131</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08538992667395517</v>
+        <v>0.2666850977650557</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08538992667395517</v>
+        <v>0.2666850977650557</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.350946787140348</v>
+        <v>5.434145977063148</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.3812789233655032, 16.0831724976462]</t>
+          <t>[-3.529257656726074, 14.39754961085237]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09688843630556043</v>
+        <v>0.2284192540678067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09688843630556043</v>
+        <v>0.2284192540678067</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.226474072814388</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.245421968155931, 0.18868424345884627]</t>
+          <t>[-5.358632514231239, 0.9056843686024632]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.06739890728036491</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06739890728036491</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="T6" t="n">
-        <v>12.51909204724911</v>
+        <v>12.62986681922319</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.031190053189563, 17.00699404130866]</t>
+          <t>[7.965683651924894, 17.29404998652149]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.146678494823306e-06</v>
+        <v>2.003028637842519e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.146678494823306e-06</v>
+        <v>2.003028637842519e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>10.24918918918941</v>
+        <v>9.000600600600791</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.7648648648648795</v>
+        <v>-3.661261261261338</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.2632432432437</v>
+        <v>21.66246246246292</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3223947229387791</v>
+        <v>0.4662267341561429</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3223947229387791</v>
+        <v>0.4662267341561429</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.295638281995505</v>
+        <v>3.870814892663585</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.048977013427862, 14.640253577418871]</t>
+          <t>[-3.817168456172153, 11.558798241499323]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2597403633293585</v>
+        <v>0.3159667393983423</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2597403633293585</v>
+        <v>0.3159667393983423</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.47805306409285</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.597632555945778, 0.6415264277600778]</t>
+          <t>[-0.02515789912784605, 6.151106336758394]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1166162313232697</v>
+        <v>0.05181619723877096</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1166162313232697</v>
+        <v>0.05181619723877096</v>
       </c>
       <c r="T7" t="n">
-        <v>12.30892748621684</v>
+        <v>11.59899771583217</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.4643538444299296, 17.153501128003747]</t>
+          <t>[7.277213626466317, 15.920781805198029]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.217266092178875e-06</v>
+        <v>2.358634730637021e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>6.217266092178875e-06</v>
+        <v>2.358634730637021e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>10.04522522522544</v>
+        <v>13.01781781781809</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.600540540540596</v>
+        <v>0.5339339339339428</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.69099099099148</v>
+        <v>25.50170170170223</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.47000000000054</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2464480539849213</v>
+        <v>0.5755992808811285</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2464480539849213</v>
+        <v>0.5755992808811285</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.718918998415522</v>
+        <v>3.161477473496763</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.5053844252632116, 13.943222422094255]</t>
+          <t>[-4.557598658517538, 10.880553605511064]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1682085753815341</v>
+        <v>0.4137742485089282</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1682085753815341</v>
+        <v>0.4137742485089282</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.056684744033312</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.811474698532471, -0.3018947895341544]</t>
+          <t>[-5.918395769825816, 0.30818426431611634]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.03043836853709037</v>
+        <v>0.07623485761131499</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03043836853709037</v>
+        <v>0.07623485761131499</v>
       </c>
       <c r="T8" t="n">
-        <v>11.30173305062778</v>
+        <v>9.317439049921601</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.65271236673827, 15.950753734517292]</t>
+          <t>[5.183330869569051, 13.451547230274151]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.298365066926266e-05</v>
+        <v>4.189262232978663e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.298365066926266e-05</v>
+        <v>4.189262232978663e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>12.39081081081108</v>
+        <v>11.33973973973998</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.22378378378381</v>
+        <v>-1.245845845845873</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.55783783783834</v>
+        <v>23.92532532532582</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2429456438072106</v>
+        <v>0.2921045370645532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2429456438072106</v>
+        <v>0.2921045370645532</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.2751401815877</v>
+        <v>4.733538793135829</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.9553110167551644, 13.505591379930564]</t>
+          <t>[-3.1066387982329555, 12.573716384504614]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.203331601950959</v>
+        <v>0.2303167129832393</v>
       </c>
       <c r="O9" t="n">
-        <v>0.203331601950959</v>
+        <v>0.2303167129832393</v>
       </c>
       <c r="P9" t="n">
-        <v>2.459184639746966</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 5.597632555945778]</t>
+          <t>[-0.25786846606042424, 5.93097471938974]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1215277289414654</v>
+        <v>0.07143787951971881</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1215277289414654</v>
+        <v>0.07143787951971881</v>
       </c>
       <c r="T9" t="n">
-        <v>10.70994901254308</v>
+        <v>13.71631516042247</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.315084421164833, 15.104813603921329]</t>
+          <t>[9.48288816132398, 17.949742159520955]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.24795482254747e-05</v>
+        <v>5.162475247288967e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.24795482254747e-05</v>
+        <v>5.162475247288967e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>14.60052052052071</v>
+        <v>13.20356356356374</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.61752752752756</v>
+        <v>1.349269269269287</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.58351351351386</v>
+        <v>25.0578578578582</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1220679353102756</v>
+        <v>0.1539908256533934</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1220679353102756</v>
+        <v>0.1539908256533934</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.118924407561332</v>
+        <v>6.263879674258996</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.5974761056981652, 13.83532492082083]</t>
+          <t>[-2.1363160111122443, 14.664075359630237]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1172346410865543</v>
+        <v>0.1401128605768371</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1172346410865543</v>
+        <v>0.1401128605768371</v>
       </c>
       <c r="P10" t="n">
-        <v>2.786237328408966</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 4.773711359508814]</t>
+          <t>[-0.5157369321208467, 5.736001001148931]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.007050671218069793</v>
+        <v>0.09953648315087338</v>
       </c>
       <c r="S10" t="n">
-        <v>0.007050671218069793</v>
+        <v>0.09953648315087338</v>
       </c>
       <c r="T10" t="n">
-        <v>12.68981714582102</v>
+        <v>12.13076768272294</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.542815677172332, 16.836818614469703]</t>
+          <t>[7.618124926126679, 16.643410439319204]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.78696593300387e-07</v>
+        <v>2.290151377426497e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78696593300387e-07</v>
+        <v>2.290151377426497e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>13.35179179179197</v>
+        <v>14.07095095095114</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.763363363363441</v>
+        <v>2.096186186186218</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.94022022022049</v>
+        <v>26.04571571571606</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.202435123713006</v>
+        <v>0.04695058130554663</v>
       </c>
       <c r="I11" t="n">
-        <v>0.202435123713006</v>
+        <v>0.04695058130554663</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.315784487019604</v>
+        <v>6.633376036070638</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.4259291385030046, 13.057498112542213]</t>
+          <t>[-0.03293453013073666, 13.299686602272013]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1734989465986174</v>
+        <v>0.05109471473850169</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1734989465986174</v>
+        <v>0.05109471473850169</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88686892492035</v>
+        <v>2.559816236258349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.34592111300788453, 5.427816736832816]</t>
+          <t>[0.7358685494895001, 4.383763923027199]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02686936119872363</v>
+        <v>0.006992745606390072</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02686936119872363</v>
+        <v>0.006992745606390072</v>
       </c>
       <c r="T11" t="n">
-        <v>11.18961450189556</v>
+        <v>11.9846242870897</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.032470648195238, 15.346758355595872]</t>
+          <t>[8.298657762588368, 15.670590811591032]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.236447306680489e-06</v>
+        <v>4.771464379160761e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>2.236447306680489e-06</v>
+        <v>4.771464379160761e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>12.96756756756774</v>
+        <v>14.2637037037039</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.265905905905949</v>
+        <v>7.276416416416514</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.66922922922953</v>
+        <v>21.25099099099128</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.372547075442961</v>
+        <v>0.09444429744988803</v>
       </c>
       <c r="I12" t="n">
-        <v>0.372547075442961</v>
+        <v>0.09444429744988803</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.934229600157906</v>
+        <v>7.21903159058078</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.1161370286066497, 10.984596228922461]</t>
+          <t>[-1.2789088507599047, 15.716972031921465]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2670130999917972</v>
+        <v>0.0939694179816386</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2670130999917972</v>
+        <v>0.0939694179816386</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.094421592725082</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-6.226580034141931, 0.03773684869176819]</t>
+          <t>[1.1258159859711179, 4.496974469102506]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.05270602170666217</v>
+        <v>0.001599403972065039</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05270602170666217</v>
+        <v>0.001599403972065039</v>
       </c>
       <c r="T12" t="n">
-        <v>10.41831109847932</v>
+        <v>12.87644815640745</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.477315222608389, 14.359306974350257]</t>
+          <t>[8.27245913407657, 17.480437178738327]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.101322548992869e-06</v>
+        <v>1.090931582403698e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.101322548992869e-06</v>
+        <v>1.090931582403698e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>11.81489489489505</v>
+        <v>13.29993993994012</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.1440840840840814</v>
+        <v>6.842722722722815</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.77387387387418</v>
+        <v>19.75715715715742</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1222595952932077</v>
+        <v>0.06131108747807745</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1222595952932077</v>
+        <v>0.06131108747807745</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.591769388998108</v>
+        <v>6.856965078729646</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.573716509805692, 12.757255287801907]</t>
+          <t>[-0.32290660964315165, 14.036836767102443]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1230124930293433</v>
+        <v>0.06075483704084728</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1230124930293433</v>
+        <v>0.06075483704084728</v>
       </c>
       <c r="P13" t="n">
-        <v>2.685605731897581</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.17610529389492324, 5.547316757690085]</t>
+          <t>[1.4277107755052705, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.06518774453957277</v>
+        <v>0.0002712577309300634</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06518774453957277</v>
+        <v>0.0002712577309300634</v>
       </c>
       <c r="T13" t="n">
-        <v>10.75200923452933</v>
+        <v>11.33508227499393</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.962634288366093, 14.541384180692564]</t>
+          <t>[7.33854138420706, 15.3316231657808]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.260223041123282e-07</v>
+        <v>8.327682090580879e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>8.260223041123282e-07</v>
+        <v>8.327682090580879e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>13.73601601601619</v>
+        <v>12.91443443443461</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.809639639639677</v>
+        <v>7.228228228228325</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.66239239239271</v>
+        <v>18.60064064064089</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3503892417502372</v>
+        <v>0.4497246588694228</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3503892417502372</v>
+        <v>0.4497246588694228</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.470708407778378</v>
+        <v>3.533975554920127</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.9532600461883582, 12.894676861745115]</t>
+          <t>[-3.7612876440348035, 10.829238753875057]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2908104741506885</v>
+        <v>0.3344424946805704</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2908104741506885</v>
+        <v>0.3344424946805704</v>
       </c>
       <c r="P14" t="n">
-        <v>2.534658337130504</v>
+        <v>3.000079470995658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.5975001042863468, 5.666816778547354]</t>
+          <t>[-0.08805264694746207, 6.088211588938777]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1101064066907524</v>
+        <v>0.05660802946294852</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1101064066907524</v>
+        <v>0.05660802946294852</v>
       </c>
       <c r="T14" t="n">
-        <v>11.10562009773163</v>
+        <v>9.364923530778654</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.76754220403799, 15.443697991425278]</t>
+          <t>[5.424420600311388, 13.30542646124592]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.45966392428987e-06</v>
+        <v>1.865032066605821e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.45966392428987e-06</v>
+        <v>1.865032066605821e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>14.31235235235254</v>
+        <v>12.57711711711729</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.353373373373403</v>
+        <v>0.7469169169169323</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.27133133133167</v>
+        <v>24.40731731731765</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08115826475664545</v>
+        <v>0.1527266798237454</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08115826475664545</v>
+        <v>0.1527266798237454</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.923604654844819</v>
+        <v>5.976559186995821</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.009972396871996, 14.857181706561635]</t>
+          <t>[-2.3763219514744645, 14.329440325466107]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.08559946142143504</v>
+        <v>0.1564767789663442</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08559946142143504</v>
+        <v>0.1564767789663442</v>
       </c>
       <c r="P15" t="n">
-        <v>2.849132076228581</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.163552834662887, 4.534711317794276]</t>
+          <t>[-0.7421580242714629, 5.534737808126161]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.001403621776724595</v>
+        <v>0.1310945791236078</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001403621776724595</v>
+        <v>0.1310945791236078</v>
       </c>
       <c r="T15" t="n">
-        <v>11.9402140061941</v>
+        <v>11.25895031413517</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.664812722463321, 16.21561528992488]</t>
+          <t>[6.961290541337008, 15.556610086933333]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.121455636354796e-06</v>
+        <v>3.644409167558038e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.121455636354796e-06</v>
+        <v>3.644409167558038e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>13.11165165165182</v>
+        <v>14.89015015015035</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.675895895895984</v>
+        <v>2.867197197197239</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.54740740740766</v>
+        <v>26.91310310310347</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1184930930907543</v>
+        <v>0.2168209918145292</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1184930930907543</v>
+        <v>0.2168209918145292</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.203434348168674</v>
+        <v>4.874844813459246</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.8852820436852902, 14.292150740022638]</t>
+          <t>[-2.5753566500863485, 12.32504627700484]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1294314699217263</v>
+        <v>0.1942150265343294</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1294314699217263</v>
+        <v>0.1942150265343294</v>
       </c>
       <c r="P16" t="n">
-        <v>2.35855304323558</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, 5.497000959434392]</t>
+          <t>[-0.4968685077749626, 5.641658879419508]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1371185952733296</v>
+        <v>0.09832159567889009</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1371185952733296</v>
+        <v>0.09832159567889009</v>
       </c>
       <c r="T16" t="n">
-        <v>11.27255097849714</v>
+        <v>10.50948104189548</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.101334464562228, 15.443767492432045]</t>
+          <t>[6.612070708284357, 14.406891375506603]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.077817183643305e-06</v>
+        <v>2.163495045337527e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>2.077817183643305e-06</v>
+        <v>2.163495045337527e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>14.98474474474494</v>
+        <v>14.21551551551571</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.001751751751792</v>
+        <v>2.45759759759763</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.96773773773809</v>
+        <v>25.97343343343378</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.99000000000031</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06002654382510053</v>
+        <v>0.1995126542196461</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06002654382510053</v>
+        <v>0.1995126542196461</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.756485181472945</v>
+        <v>4.893814869439143</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.05756334021481102, 13.455407022731078]</t>
+          <t>[-1.8954924252633596, 11.683122164141645]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.04814433707309562</v>
+        <v>0.1534967289338862</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04814433707309562</v>
+        <v>0.1534967289338862</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.107000542289004</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-4.427790246500929, -1.7862108380770794]</t>
+          <t>[-0.10692107129334705, 5.956132618517586]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.189538305219507e-05</v>
+        <v>0.05827974086559462</v>
       </c>
       <c r="S17" t="n">
-        <v>2.189538305219507e-05</v>
+        <v>0.05827974086559462</v>
       </c>
       <c r="T17" t="n">
-        <v>10.7736518157115</v>
+        <v>12.77800826049371</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.843454133774017, 14.703849497648978]</t>
+          <t>[8.970898902665473, 16.585117618321945]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.594858628495288e-06</v>
+        <v>2.314185620910791e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.594858628495288e-06</v>
+        <v>2.314185620910791e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>11.86292292292307</v>
+        <v>12.86624624624642</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.819979979980067</v>
+        <v>1.252892892892909</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.90586586586608</v>
+        <v>24.47959959959993</v>
       </c>
     </row>
   </sheetData>
